--- a/config_1.19/game_enter_btn_config.xlsx
+++ b/config_1.19/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="22" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1519,10 +1519,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>108#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>top_left</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1568,6 +1564,10 @@
   </si>
   <si>
     <t>121#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>108#11#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2150,8 +2150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2202,10 +2202,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>342</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2224,10 +2224,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3133,7 +3133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -3158,7 +3158,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -5259,7 +5259,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5276,7 +5276,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5285,7 +5285,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5293,7 +5293,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5302,7 +5302,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5310,7 +5310,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5319,7 +5319,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -5834,7 +5834,7 @@
         <v>339</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>
